--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADD278E-625B-4F9D-B092-8C07D28F3253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA1580-56FB-498F-A18D-8DF8A7253A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -739,7 +739,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.6409722222222227</v>
+        <v>2.2034722222222225</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1303,10 +1303,12 @@
       <c r="C28" s="17">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="17">
+        <v>0.5625</v>
+      </c>
       <c r="E28" s="10">
         <f t="shared" si="0"/>
-        <v>-0.48958333333333331</v>
+        <v>7.2916666666666685E-2</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>42</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA1580-56FB-498F-A18D-8DF8A7253A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3923A33-F307-4897-97AF-637CFF73C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Name:</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Began looking through project requirements and making adjustments to ensure issues were updated, naming conventions were followed</t>
+  </si>
+  <si>
+    <t>Tested Fernando's wifi contributions</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +767,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.2034722222222225</v>
+        <v>1.6131944444444448</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1315,15 +1318,23 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="D29" s="17"/>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="13"/>
+        <v>-0.59027777777777779</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3923A33-F307-4897-97AF-637CFF73C407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CAFE70-BA81-4F13-AE32-B4DEA45F2D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Name:</t>
   </si>
@@ -167,7 +167,10 @@
     <t>Began looking through project requirements and making adjustments to ensure issues were updated, naming conventions were followed</t>
   </si>
   <si>
-    <t>Tested Fernando's wifi contributions</t>
+    <t>Tested Fernando's wifi contributions, altered circuit, and uploaded finished circuit onto Github</t>
+  </si>
+  <si>
+    <t>Continued documenting stuff for prototype submission</t>
   </si>
 </sst>
 </file>
@@ -741,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +770,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.6131944444444448</v>
+        <v>1.6125000000000003</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1327,25 +1330,35 @@
       <c r="C29" s="17">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="17">
+        <v>0.62430555555555556</v>
+      </c>
       <c r="E29" s="10">
         <f t="shared" si="0"/>
-        <v>-0.59027777777777779</v>
+        <v>3.4027777777777768E-2</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="17"/>
+      <c r="A30" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.625</v>
+      </c>
       <c r="D30" s="17"/>
       <c r="E30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="13"/>
+        <v>-0.625</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CAFE70-BA81-4F13-AE32-B4DEA45F2D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A479DA-45DD-4284-A067-8CD611301386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -170,7 +170,7 @@
     <t>Tested Fernando's wifi contributions, altered circuit, and uploaded finished circuit onto Github</t>
   </si>
   <si>
-    <t>Continued documenting stuff for prototype submission</t>
+    <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submissables</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.6125000000000003</v>
+        <v>2.3722222222222227</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1351,10 +1351,12 @@
       <c r="C30" s="17">
         <v>0.625</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="17">
+        <v>0.75972222222222219</v>
+      </c>
       <c r="E30" s="10">
         <f t="shared" si="0"/>
-        <v>-0.625</v>
+        <v>0.13472222222222219</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>44</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A479DA-45DD-4284-A067-8CD611301386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B32B56-972E-4754-A1E1-82C8669EA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>Name:</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submissables</t>
+  </si>
+  <si>
+    <t>Modify project display, began creating report document and presentation</t>
   </si>
 </sst>
 </file>
@@ -744,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,7 +773,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.3722222222222227</v>
+        <v>1.4736111111111114</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1363,15 +1366,23 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.89861111111111114</v>
+      </c>
       <c r="D31" s="17"/>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="13"/>
+        <v>-0.89861111111111114</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B32B56-972E-4754-A1E1-82C8669EA1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F92CD-2BF6-43C5-BCA8-5FACF02C7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Name:</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Modify project display, began creating report document and presentation</t>
+  </si>
+  <si>
+    <t>Continuing report</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +776,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.4736111111111114</v>
+        <v>1.9666666666666672</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1375,25 +1378,35 @@
       <c r="C31" s="17">
         <v>0.89861111111111114</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="17">
+        <v>0.9555555555555556</v>
+      </c>
       <c r="E31" s="10">
         <f t="shared" si="0"/>
-        <v>-0.89861111111111114</v>
+        <v>5.6944444444444464E-2</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="17"/>
+      <c r="A32" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.46250000000000002</v>
+      </c>
       <c r="D32" s="17"/>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="13"/>
+        <v>-0.46250000000000002</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F92CD-2BF6-43C5-BCA8-5FACF02C7E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF37199-4AA8-4865-909D-7C9B64DD44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>Name:</t>
   </si>
@@ -173,10 +173,10 @@
     <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submissables</t>
   </si>
   <si>
-    <t>Modify project display, began creating report document and presentation</t>
-  </si>
-  <si>
-    <t>Continuing report</t>
+    <t>Modify project display, began creating report document</t>
+  </si>
+  <si>
+    <t>Continuing report, modified readme</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.9666666666666672</v>
+        <v>2.5291666666666672</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1399,18 +1399,24 @@
       <c r="C32" s="17">
         <v>0.46250000000000002</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="17">
+        <v>0.5625</v>
+      </c>
       <c r="E32" s="10">
         <f t="shared" si="0"/>
-        <v>-0.46250000000000002</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="10">

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF37199-4AA8-4865-909D-7C9B64DD44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D3DFD3-E3F4-4F25-9AA8-FCC486143E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Name:</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Continuing report, modified readme</t>
+  </si>
+  <si>
+    <t>Continuing report</t>
   </si>
 </sst>
 </file>
@@ -750,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +779,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.5291666666666672</v>
+        <v>1.8388888888888895</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1417,13 +1420,17 @@
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="17">
+        <v>0.69027777777777777</v>
+      </c>
       <c r="D33" s="17"/>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="13"/>
+        <v>-0.69027777777777777</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D3DFD3-E3F4-4F25-9AA8-FCC486143E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CEF871-262B-4D25-AB5A-122F3B7CAE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Name:</t>
   </si>
@@ -179,7 +179,10 @@
     <t>Continuing report, modified readme</t>
   </si>
   <si>
-    <t>Continuing report</t>
+    <t>Finished my portion of the report</t>
+  </si>
+  <si>
+    <t>Modified ReadMe, modified plant structure</t>
   </si>
 </sst>
 </file>
@@ -753,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +782,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.8388888888888895</v>
+        <v>1.8298611111111116</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1423,25 +1426,35 @@
       <c r="C33" s="17">
         <v>0.69027777777777777</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="17">
+        <v>0.89236111111111116</v>
+      </c>
       <c r="E33" s="10">
         <f t="shared" si="0"/>
-        <v>-0.69027777777777777</v>
+        <v>0.20208333333333339</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="17"/>
+      <c r="A34" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.90138888888888891</v>
+      </c>
       <c r="D34" s="17"/>
       <c r="E34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>-0.90138888888888891</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CEF871-262B-4D25-AB5A-122F3B7CAE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62E294-EB8A-4CEF-9FCD-276C1E3B5745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -167,12 +167,6 @@
     <t>Began looking through project requirements and making adjustments to ensure issues were updated, naming conventions were followed</t>
   </si>
   <si>
-    <t>Tested Fernando's wifi contributions, altered circuit, and uploaded finished circuit onto Github</t>
-  </si>
-  <si>
-    <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submissables</t>
-  </si>
-  <si>
     <t>Modify project display, began creating report document</t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>Modified ReadMe, modified plant structure</t>
+  </si>
+  <si>
+    <t>Tested Fernando's Wi-Fi contributions, altered circuit, and uploaded finished circuit onto Github</t>
+  </si>
+  <si>
+    <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submittables</t>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.8298611111111116</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1350,7 +1350,7 @@
         <v>3.4027777777777768E-2</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1371,7 +1371,7 @@
         <v>0.13472222222222219</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>5.6944444444444464E-2</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1434,7 +1434,7 @@
         <v>0.20208333333333339</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1447,13 +1447,15 @@
       <c r="C34" s="17">
         <v>0.90138888888888891</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="17">
+        <v>0.92013888888888884</v>
+      </c>
       <c r="E34" s="10">
         <f t="shared" si="0"/>
-        <v>-0.90138888888888891</v>
+        <v>1.8749999999999933E-2</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62E294-EB8A-4CEF-9FCD-276C1E3B5745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765AFC12-269E-472B-B730-F5C91416AE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Name:</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submittables</t>
+  </si>
+  <si>
+    <t>Modified report</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +785,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.7500000000000004</v>
+        <v>2.2756944444444449</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1460,14 +1463,20 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0.47430555555555554</v>
+      </c>
       <c r="D35" s="17"/>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="13"/>
+        <v>-0.47430555555555554</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765AFC12-269E-472B-B730-F5C91416AE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB161BE4-9D42-4522-B1C3-49F84FE013A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Name:</t>
   </si>
@@ -185,7 +185,10 @@
     <t>Continued documenting stuff for prototype submission, made circuit diagrams, editted some issues discussed what needed to be continued for submittables</t>
   </si>
   <si>
-    <t>Modified report</t>
+    <t>Modified report and ReadMe, began working on presentation, assisted Fernando and Nicholas test the state of the Wi-Fi from an alternate computer and integrating it into main.</t>
+  </si>
+  <si>
+    <t>Begin working on powerpoint</t>
   </si>
 </sst>
 </file>
@@ -759,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +788,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.2756944444444449</v>
+        <v>2.1541666666666668</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1462,32 +1465,44 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="7">
+        <v>45977</v>
+      </c>
       <c r="B35" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="17">
         <v>0.47430555555555554</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="17">
+        <v>0.62152777777777779</v>
+      </c>
       <c r="E35" s="10">
         <f t="shared" si="0"/>
-        <v>-0.47430555555555554</v>
+        <v>0.14722222222222225</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="17"/>
+      <c r="A36" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0.74305555555555558</v>
+      </c>
       <c r="D36" s="17"/>
       <c r="E36" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="13"/>
+        <v>-0.74305555555555558</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB161BE4-9D42-4522-B1C3-49F84FE013A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2463FD-A3AE-4CE5-8639-604B84BEA5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -763,7 +763,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C18" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.1541666666666668</v>
+        <v>3.0500000000000003</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1495,10 +1495,12 @@
       <c r="C36" s="17">
         <v>0.74305555555555558</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="17">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="E36" s="10">
         <f t="shared" si="0"/>
-        <v>-0.74305555555555558</v>
+        <v>0.15277777777777779</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>50</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2463FD-A3AE-4CE5-8639-604B84BEA5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD7B79F-C3FA-4417-837D-70A8D1914476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>Name:</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Begin working on powerpoint</t>
+  </si>
+  <si>
+    <t>Clean Up</t>
   </si>
 </sst>
 </file>
@@ -762,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -788,7 +791,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.0500000000000003</v>
+        <v>2.4597222222222226</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1507,13 +1510,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="17"/>
+      <c r="A37" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.59027777777777779</v>
+      </c>
       <c r="D37" s="17"/>
       <c r="E37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.59027777777777779</v>
       </c>
       <c r="F37" s="13"/>
     </row>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD7B79F-C3FA-4417-837D-70A8D1914476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564BF5B3-2DDD-42D3-B205-F7AA8132FD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Name:</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Clean Up</t>
+  </si>
+  <si>
+    <t>Experimented with ADC peripheral on DAD and reworked the peripheral  so it only needs to call an initialization function in main, reworked some aspects of main to avoid bad outputs/improve organization,  removed extra plant data structure, created blinky module</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="73" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -1524,7 +1527,9 @@
         <f t="shared" si="0"/>
         <v>-0.59027777777777779</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564BF5B3-2DDD-42D3-B205-F7AA8132FD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0C078-FF76-4AB7-802D-576B9CB46C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <t>Clean Up</t>
   </si>
   <si>
-    <t>Experimented with ADC peripheral on DAD and reworked the peripheral  so it only needs to call an initialization function in main, reworked some aspects of main to avoid bad outputs/improve organization,  removed extra plant data structure, created blinky module</t>
+    <t>Experimented with ADC peripheral on DAD and reworked the peripheral  so it only needs to call an initialization function in main, reworked some aspects of main to avoid bad outputs/improve organization,  removed extra plant data structure, created heartbeat module</t>
   </si>
 </sst>
 </file>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.4597222222222226</v>
+        <v>3.2513888888888891</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1522,10 +1522,12 @@
       <c r="C37" s="17">
         <v>0.59027777777777779</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="17">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E37" s="10">
         <f t="shared" si="0"/>
-        <v>-0.59027777777777779</v>
+        <v>0.20138888888888884</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>52</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0C078-FF76-4AB7-802D-576B9CB46C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97922CAE-FB1C-43D2-9268-45A5D53CB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Name:</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>Experimented with ADC peripheral on DAD and reworked the peripheral  so it only needs to call an initialization function in main, reworked some aspects of main to avoid bad outputs/improve organization,  removed extra plant data structure, created heartbeat module</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Changed personal directory name and it killed everything, took me an hour but it forced me to reinstall everything to get it working</t>
+  </si>
+  <si>
+    <t>Main Rework</t>
+  </si>
+  <si>
+    <t>Started modifying main to more closely match a routine based off of received signal from database</t>
   </si>
 </sst>
 </file>
@@ -768,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +806,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.2513888888888891</v>
+        <v>2.5791666666666671</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1534,26 +1546,44 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.67222222222222228</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.74930555555555556</v>
+      </c>
       <c r="E38" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="13"/>
+        <v>7.7083333333333282E-2</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="17"/>
+      <c r="A39" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.74930555555555556</v>
+      </c>
       <c r="D39" s="17"/>
       <c r="E39" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="13"/>
+        <v>-0.74930555555555556</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97922CAE-FB1C-43D2-9268-45A5D53CB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B2E15-370E-4AC7-BCC2-0CD888FD3761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -206,7 +206,7 @@
     <t>Main Rework</t>
   </si>
   <si>
-    <t>Started modifying main to more closely match a routine based off of received signal from database</t>
+    <t>Started modifying main to more closely match a routine based off of received signal from database. Also made some tickets and cleaned up code to be more organized and efficient</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +806,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.5791666666666671</v>
+        <v>3.4104166666666669</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>46048</v>
+        <v>46038</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>55</v>
@@ -1576,10 +1576,12 @@
       <c r="C39" s="17">
         <v>0.74930555555555556</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="17">
+        <v>0.83125000000000004</v>
+      </c>
       <c r="E39" s="10">
         <f t="shared" si="0"/>
-        <v>-0.74930555555555556</v>
+        <v>8.1944444444444486E-2</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>56</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B2E15-370E-4AC7-BCC2-0CD888FD3761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2A39C-0728-46C1-9FE9-E9C791D4027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Name:</t>
   </si>
@@ -191,22 +191,19 @@
     <t>Begin working on powerpoint</t>
   </si>
   <si>
-    <t>Clean Up</t>
-  </si>
-  <si>
     <t>Experimented with ADC peripheral on DAD and reworked the peripheral  so it only needs to call an initialization function in main, reworked some aspects of main to avoid bad outputs/improve organization,  removed extra plant data structure, created heartbeat module</t>
   </si>
   <si>
-    <t>Debugging</t>
-  </si>
-  <si>
     <t>Changed personal directory name and it killed everything, took me an hour but it forced me to reinstall everything to get it working</t>
   </si>
   <si>
-    <t>Main Rework</t>
-  </si>
-  <si>
     <t>Started modifying main to more closely match a routine based off of received signal from database. Also made some tickets and cleaned up code to be more organized and efficient</t>
+  </si>
+  <si>
+    <t>Alpha Build</t>
+  </si>
+  <si>
+    <t>Created pin diagram showing which pins were used for what; Started working on fertilizer pump addition to PWM</t>
   </si>
 </sst>
 </file>
@@ -780,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +803,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.4104166666666669</v>
+        <v>2.865277777777778</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1529,7 +1526,7 @@
         <v>46030</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C37" s="17">
         <v>0.59027777777777779</v>
@@ -1542,7 +1539,7 @@
         <v>0.20138888888888884</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1550,7 +1547,7 @@
         <v>46038</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="17">
         <v>0.67222222222222228</v>
@@ -1563,7 +1560,7 @@
         <v>7.7083333333333282E-2</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1571,7 +1568,7 @@
         <v>46038</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="17">
         <v>0.74930555555555556</v>
@@ -1584,23 +1581,35 @@
         <v>8.1944444444444486E-2</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="17"/>
+      <c r="A40" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.54513888888888884</v>
+      </c>
       <c r="D40" s="17"/>
       <c r="E40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>-0.54513888888888884</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="10">

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB2A39C-0728-46C1-9FE9-E9C791D4027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9566FFE-2AA3-48CB-AD7C-DE1D9E13AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -203,7 +203,7 @@
     <t>Alpha Build</t>
   </si>
   <si>
-    <t>Created pin diagram showing which pins were used for what; Started working on fertilizer pump addition to PWM</t>
+    <t>Created pin diagram showing which pins were used for what; Integrated fertilizer pump addition to PWM and main and tested it out</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.865277777777778</v>
+        <v>3.4527777777777779</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1594,10 +1594,12 @@
       <c r="C40" s="17">
         <v>0.54513888888888884</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="17">
+        <v>0.58750000000000002</v>
+      </c>
       <c r="E40" s="10">
         <f t="shared" si="0"/>
-        <v>-0.54513888888888884</v>
+        <v>4.2361111111111183E-2</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>55</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9566FFE-2AA3-48CB-AD7C-DE1D9E13AD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE68E16-6A5A-4C2F-A655-B33A302140FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Name:</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Created pin diagram showing which pins were used for what; Integrated fertilizer pump addition to PWM and main and tested it out</t>
+  </si>
+  <si>
+    <t>Check-in 6: Met with group &amp; Tyler, discussed what's gotten done and what needs to get done for alpha build, showed bought materials and began observing what modifications would be needed to integrate electronics into plastic build</t>
   </si>
 </sst>
 </file>
@@ -777,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +806,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.4527777777777779</v>
+        <v>3.5006944444444446</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1612,13 +1615,19 @@
       <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="17">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.49236111111111114</v>
+      </c>
       <c r="E41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="13"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE68E16-6A5A-4C2F-A655-B33A302140FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E1196-12B3-4726-8982-F1D02ADF3C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Name:</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Check-in 6: Met with group &amp; Tyler, discussed what's gotten done and what needs to get done for alpha build, showed bought materials and began observing what modifications would be needed to integrate electronics into plastic build</t>
+  </si>
+  <si>
+    <t>Realized I should go ahead and have main set up for potential of boolean to change depending on if auto-scheduling/care is on</t>
   </si>
 </sst>
 </file>
@@ -780,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,7 +809,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.5006944444444446</v>
+        <v>2.771527777777778</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1630,15 +1633,23 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="17"/>
+      <c r="A42" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D42" s="17"/>
       <c r="E42" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="13"/>
+        <v>-0.72916666666666663</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E1196-12B3-4726-8982-F1D02ADF3C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9013C-3478-456A-B25A-F8246A997A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -209,7 +209,7 @@
     <t>Check-in 6: Met with group &amp; Tyler, discussed what's gotten done and what needs to get done for alpha build, showed bought materials and began observing what modifications would be needed to integrate electronics into plastic build</t>
   </si>
   <si>
-    <t>Realized I should go ahead and have main set up for potential of boolean to change depending on if auto-scheduling/care is on</t>
+    <t>Realized I should go ahead and have main set up for potential of boolean to change depending on if auto-scheduling/care is on;  Created/modified tickets in project hub.</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="73" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +809,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.771527777777778</v>
+        <v>3.5430555555555556</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1642,10 +1642,12 @@
       <c r="C42" s="17">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="17">
+        <v>0.77152777777777781</v>
+      </c>
       <c r="E42" s="10">
         <f t="shared" si="0"/>
-        <v>-0.72916666666666663</v>
+        <v>4.2361111111111183E-2</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>57</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E9013C-3478-456A-B25A-F8246A997A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907D2FE-F13F-4AF1-B854-1A028028568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Name:</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Realized I should go ahead and have main set up for potential of boolean to change depending on if auto-scheduling/care is on;  Created/modified tickets in project hub.</t>
+  </si>
+  <si>
+    <t>Integrated PR into main; solder and heat shrinked additional wires to extend motor wire length</t>
   </si>
 </sst>
 </file>
@@ -783,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,7 +812,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.5430555555555556</v>
+        <v>2.9597222222222221</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1654,15 +1657,23 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D43" s="17"/>
       <c r="E43" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="13"/>
+        <v>-0.58333333333333337</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907D2FE-F13F-4AF1-B854-1A028028568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798EE69B-111B-49AE-B54E-8F1736454C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <t>Realized I should go ahead and have main set up for potential of boolean to change depending on if auto-scheduling/care is on;  Created/modified tickets in project hub.</t>
   </si>
   <si>
-    <t>Integrated PR into main; solder and heat shrinked additional wires to extend motor wire length</t>
+    <t>Integrated PR into main; solder and heat shrinked additional wires to extend motor wire length; Built new mini circuit to make cleaner and tested with new motors to ensure everything still worked.</t>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.9597222222222221</v>
+        <v>3.6701388888888888</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1666,10 +1666,12 @@
       <c r="C43" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="17">
+        <v>0.7104166666666667</v>
+      </c>
       <c r="E43" s="10">
         <f t="shared" si="0"/>
-        <v>-0.58333333333333337</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>58</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Contributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2463FD-A3AE-4CE5-8639-604B84BEA5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907D2FE-F13F-4AF1-B854-1A028028568A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Name:</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>Begin working on powerpoint</t>
+  </si>
+  <si>
+    <t>Experimented with ADC peripheral on DAD and reworked the peripheral  so it only needs to call an initialization function in main, reworked some aspects of main to avoid bad outputs/improve organization,  removed extra plant data structure, created heartbeat module</t>
+  </si>
+  <si>
+    <t>Changed personal directory name and it killed everything, took me an hour but it forced me to reinstall everything to get it working</t>
+  </si>
+  <si>
+    <t>Started modifying main to more closely match a routine based off of received signal from database. Also made some tickets and cleaned up code to be more organized and efficient</t>
+  </si>
+  <si>
+    <t>Alpha Build</t>
+  </si>
+  <si>
+    <t>Created pin diagram showing which pins were used for what; Integrated fertilizer pump addition to PWM and main and tested it out</t>
+  </si>
+  <si>
+    <t>Check-in 6: Met with group &amp; Tyler, discussed what's gotten done and what needs to get done for alpha build, showed bought materials and began observing what modifications would be needed to integrate electronics into plastic build</t>
+  </si>
+  <si>
+    <t>Realized I should go ahead and have main set up for potential of boolean to change depending on if auto-scheduling/care is on;  Created/modified tickets in project hub.</t>
+  </si>
+  <si>
+    <t>Integrated PR into main; solder and heat shrinked additional wires to extend motor wire length</t>
   </si>
 </sst>
 </file>
@@ -762,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +812,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.0500000000000003</v>
+        <v>2.9597222222222221</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1507,81 +1531,149 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="7">
+        <v>46030</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D37" s="17">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E37" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="13"/>
+        <v>0.20138888888888884</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.67222222222222228</v>
+      </c>
+      <c r="D38" s="17">
+        <v>0.74930555555555556</v>
+      </c>
       <c r="E38" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="13"/>
+        <v>7.7083333333333282E-2</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="7">
+        <v>46038</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="D39" s="17">
+        <v>0.83125000000000004</v>
+      </c>
       <c r="E39" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="13"/>
+        <v>8.1944444444444486E-2</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="7">
+        <v>46043</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.58750000000000002</v>
+      </c>
       <c r="E40" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="13"/>
+        <v>4.2361111111111183E-2</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0.49236111111111114</v>
+      </c>
       <c r="E41" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="13"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="7">
+        <v>46045</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D42" s="17">
+        <v>0.77152777777777781</v>
+      </c>
       <c r="E42" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="13"/>
+        <v>4.2361111111111183E-2</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="17"/>
+      <c r="A43" s="7">
+        <v>46048</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D43" s="17"/>
       <c r="E43" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="13"/>
+        <v>-0.58333333333333337</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798EE69B-111B-49AE-B54E-8F1736454C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B6D692-978E-4765-B05B-EFFB91DFF375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Name:</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Integrated PR into main; solder and heat shrinked additional wires to extend motor wire length; Built new mini circuit to make cleaner and tested with new motors to ensure everything still worked.</t>
+  </si>
+  <si>
+    <t>Instructor Meeting</t>
+  </si>
+  <si>
+    <t>Met up with group and instructor to discuss current project state and what needs to be done for documentation; fixed wire that fell out</t>
+  </si>
+  <si>
+    <t>Merged wire motor branch</t>
   </si>
 </sst>
 </file>
@@ -786,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +821,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.6701388888888888</v>
+        <v>3.7034722222222221</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1678,26 +1687,46 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="E44" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="13"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="7">
+        <v>46051</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0.70694444444444449</v>
+      </c>
       <c r="E45" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="13"/>
+        <v>5.5555555555556468E-3</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B6D692-978E-4765-B05B-EFFB91DFF375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C707EB-F9CB-4F8C-89A0-1942CF44942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>Name:</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Merged wire motor branch</t>
+  </si>
+  <si>
+    <t>Met up with group to test demo. Also received another 12v to 5v adapt, so began wire stripping and attaching fertilizer motor to a new relay; Utilized double-sided tape to rework our wire structure to make it more sound/easier to use and understand</t>
   </si>
 </sst>
 </file>
@@ -795,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,7 +824,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.7034722222222221</v>
+        <v>3.2590277777777779</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1729,15 +1732,23 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="17"/>
+      <c r="A46" s="7">
+        <v>46058</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D46" s="17"/>
       <c r="E46" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="13"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C707EB-F9CB-4F8C-89A0-1942CF44942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1042EAA-05D2-4E78-8E85-AE654B116B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.2590277777777779</v>
+        <v>3.8423611111111109</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1741,10 +1741,12 @@
       <c r="C46" s="17">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E46" s="10">
         <f t="shared" si="0"/>
-        <v>-0.44444444444444442</v>
+        <v>0.13888888888888895</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>62</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1042EAA-05D2-4E78-8E85-AE654B116B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531A9F7-B380-4909-B441-39A40B86E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Name:</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Met up with group to test demo. Also received another 12v to 5v adapt, so began wire stripping and attaching fertilizer motor to a new relay; Utilized double-sided tape to rework our wire structure to make it more sound/easier to use and understand</t>
+  </si>
+  <si>
+    <t>Check-in 7: Met with group &amp; Tyler to demo alpha build; Discussed what needed to be done and experimented with group to get MQTT client to send a signal to the microcontroller.</t>
   </si>
 </sst>
 </file>
@@ -798,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +827,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.8423611111111109</v>
+        <v>3.911111111111111</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1753,15 +1756,25 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="A47" s="7">
+        <v>46059</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D47" s="17">
+        <v>0.5131944444444444</v>
+      </c>
       <c r="E47" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="13"/>
+        <v>6.8749999999999978E-2</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531A9F7-B380-4909-B441-39A40B86E0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48DD3F-306B-4BF4-9FDD-087E50A57A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>Name:</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Check-in 7: Met with group &amp; Tyler to demo alpha build; Discussed what needed to be done and experimented with group to get MQTT client to send a signal to the microcontroller.</t>
+  </si>
+  <si>
+    <t>Beta Build</t>
+  </si>
+  <si>
+    <t>Experimented with group and successfully got MQTT client to communicate t microcontroller. Started modifying main so the main loop would be triggered from MQTT message</t>
+  </si>
+  <si>
+    <t>Began cleaning up MQTT branch to prepare it for more clean merge</t>
   </si>
 </sst>
 </file>
@@ -801,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,7 +836,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.911111111111111</v>
+        <v>3.2298611111111111</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1777,26 +1786,44 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D48" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E48" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="13"/>
+        <v>0.13888888888888895</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="17"/>
+      <c r="A49" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.82013888888888886</v>
+      </c>
       <c r="D49" s="17"/>
       <c r="E49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="13"/>
+        <v>-0.82013888888888886</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D48DD3F-306B-4BF4-9FDD-087E50A57A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E90EF-230B-4032-A40B-7B236CB0141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Name:</t>
   </si>
@@ -811,7 +811,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.2298611111111111</v>
+        <v>4.0958333333333332</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1816,10 +1816,12 @@
       <c r="C49" s="17">
         <v>0.82013888888888886</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="17">
+        <v>0.86597222222222225</v>
+      </c>
       <c r="E49" s="10">
         <f t="shared" si="0"/>
-        <v>-0.82013888888888886</v>
+        <v>4.5833333333333393E-2</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>66</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701E90EF-230B-4032-A40B-7B236CB0141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCFD638-7082-4BEF-B106-F4894DB27278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>Name:</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Began cleaning up MQTT branch to prepare it for more clean merge</t>
+  </si>
+  <si>
+    <t>Additional cleaning</t>
   </si>
 </sst>
 </file>
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +839,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.0958333333333332</v>
+        <v>3.145833333333333</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1830,13 +1833,17 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>0.95</v>
+      </c>
       <c r="D50" s="17"/>
       <c r="E50" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="13"/>
+        <v>-0.95</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCFD638-7082-4BEF-B106-F4894DB27278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC49B632-BFA2-46B8-B792-A77F1772183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Name:</t>
   </si>
@@ -239,7 +239,16 @@
     <t>Began cleaning up MQTT branch to prepare it for more clean merge</t>
   </si>
   <si>
-    <t>Additional cleaning</t>
+    <t>Additional cleaning, fixed merge conficts, adjusted tickets. Tested to still be able to build/flash.</t>
+  </si>
+  <si>
+    <t>^^ Had to split into 2 because excel hates new days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met up with group and instructor to discuss current project state and what needs to be done for documentation; </t>
+  </si>
+  <si>
+    <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build;</t>
   </si>
 </sst>
 </file>
@@ -813,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +848,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.145833333333333</v>
+        <v>3.2013888888888893</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1831,30 +1840,46 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C50" s="17">
         <v>0.95</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="17">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="E50" s="10">
         <f t="shared" si="0"/>
-        <v>-0.95</v>
+        <v>4.9305555555555602E-2</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="A51" s="7">
+        <v>46063</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1.4583333333333334E-2</v>
+      </c>
       <c r="E51" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="13"/>
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
@@ -1868,26 +1893,42 @@
       <c r="F52" s="13"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="7">
+        <v>46065</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.51388888888888884</v>
+      </c>
       <c r="D53" s="17"/>
       <c r="E53" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="13"/>
+        <v>-0.51388888888888884</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="17"/>
+      <c r="A54" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D54" s="17"/>
       <c r="E54" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="13"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC49B632-BFA2-46B8-B792-A77F1772183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A1EC9-378A-4330-BD18-F1ADF9CEE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Name:</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build;</t>
+  </si>
+  <si>
+    <t>Going to test MQTT on my own computer to see if it still works before merging into main</t>
   </si>
 </sst>
 </file>
@@ -822,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="73" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,7 +851,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.2013888888888893</v>
+        <v>2.7284722222222229</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>64</v>
@@ -1882,15 +1885,23 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="17"/>
+      <c r="A52" s="7">
+        <v>46064</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.47291666666666665</v>
+      </c>
       <c r="D52" s="17"/>
       <c r="E52" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="13"/>
+        <v>-0.47291666666666665</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A1EC9-378A-4330-BD18-F1ADF9CEE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB4C2E-7DE1-4218-BB6B-DDD378AC328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -251,7 +251,7 @@
     <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build;</t>
   </si>
   <si>
-    <t>Going to test MQTT on my own computer to see if it still works before merging into main</t>
+    <t>Tested MQTT on my own computer to see it still works, merged into main, updated tickets, began working on finishing up what's left to integrate soil sensor</t>
   </si>
 </sst>
 </file>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="73" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB4C2E-7DE1-4218-BB6B-DDD378AC328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48CBA8-4C56-4BF1-A8DE-27D85E08C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -251,7 +251,7 @@
     <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build;</t>
   </si>
   <si>
-    <t>Tested MQTT on my own computer to see it still works, merged into main, updated tickets, began working on finishing up what's left to integrate soil sensor</t>
+    <t>Tested MQTT on my own computer to see it still works, merged into main, updated tickets, set up rest of the code needed to test NPK sensor in person</t>
   </si>
 </sst>
 </file>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +851,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.7284722222222229</v>
+        <v>3.2993055555555557</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1894,10 +1894,12 @@
       <c r="C52" s="17">
         <v>0.47291666666666665</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="17">
+        <v>0.5708333333333333</v>
+      </c>
       <c r="E52" s="10">
         <f t="shared" si="0"/>
-        <v>-0.47291666666666665</v>
+        <v>9.7916666666666652E-2</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>71</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48CBA8-4C56-4BF1-A8DE-27D85E08C9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59492F34-C3F1-4026-94C6-56ACA74989DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>Name:</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Tested MQTT on my own computer to see it still works, merged into main, updated tickets, set up rest of the code needed to test NPK sensor in person</t>
+  </si>
+  <si>
+    <t>Tried to flash uart to see what would happen if test ran without sensor connected and realized current pin set up killed the micro.; switched pins until main worked again, now ready for test tomorrow in person</t>
   </si>
 </sst>
 </file>
@@ -825,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +854,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.2993055555555557</v>
+        <v>3.354166666666667</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1907,52 +1910,62 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>46065</v>
+        <v>46064</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C53" s="17">
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="D53" s="17"/>
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D53" s="17">
+        <v>0.8256944444444444</v>
+      </c>
       <c r="E53" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.51388888888888884</v>
+        <f>D53-C53</f>
+        <v>5.4861111111111027E-2</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C54" s="17">
-        <v>0.44444444444444442</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.44444444444444442</v>
+        <f>D54-C54</f>
+        <v>-0.51388888888888884</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="17"/>
+      <c r="A55" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D55" s="17"/>
       <c r="E55" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="13"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59492F34-C3F1-4026-94C6-56ACA74989DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E1C68E-F037-45D9-8D95-BB3CA36613A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Name:</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Tried to flash uart to see what would happen if test ran without sensor connected and realized current pin set up killed the micro.; switched pins until main worked again, now ready for test tomorrow in person</t>
+  </si>
+  <si>
+    <t>Began attempting to connect NPK to microcontroller to test uart</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,7 +857,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.354166666666667</v>
+        <v>2.9027777777777777</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1934,49 +1937,57 @@
         <v>46065</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C54" s="17">
-        <v>0.51388888888888884</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="10">
         <f>D54-C54</f>
-        <v>-0.51388888888888884</v>
+        <v>-0.4513888888888889</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>46066</v>
+        <v>46065</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C55" s="17">
-        <v>0.44444444444444442</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="10">
         <f t="shared" si="0"/>
-        <v>-0.44444444444444442</v>
+        <v>-0.51388888888888884</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="17"/>
+      <c r="A56" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.44444444444444442</v>
+      </c>
       <c r="D56" s="17"/>
       <c r="E56" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="13"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E1C68E-F037-45D9-8D95-BB3CA36613A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D97625-D160-4C22-87A6-A0FC7C106232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>Name:</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Began attempting to connect NPK to microcontroller to test uart</t>
+  </si>
+  <si>
+    <t>Discussed with group our plans to get everything completed before beta uild. Continued attempting to get uart to work and failed. Created new pin out diagram</t>
   </si>
 </sst>
 </file>
@@ -831,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +860,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.9027777777777777</v>
+        <v>4.0166666666666666</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1942,10 +1945,12 @@
       <c r="C54" s="17">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="17">
+        <v>0.51388888888888884</v>
+      </c>
       <c r="E54" s="10">
         <f>D54-C54</f>
-        <v>-0.4513888888888889</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>73</v>
@@ -1961,10 +1966,12 @@
       <c r="C55" s="17">
         <v>0.51388888888888884</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="17">
+        <v>0.53402777777777777</v>
+      </c>
       <c r="E55" s="10">
         <f t="shared" si="0"/>
-        <v>-0.51388888888888884</v>
+        <v>2.0138888888888928E-2</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>69</v>
@@ -1975,30 +1982,40 @@
         <v>46066</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>46066</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C57" s="17">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.44444444444444442</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="13"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D97625-D160-4C22-87A6-A0FC7C106232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E13776-EFD9-4214-9F9D-201CFCEABE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">Met up with group and instructor to discuss current project state and what needs to be done for documentation; </t>
   </si>
   <si>
-    <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build;</t>
-  </si>
-  <si>
     <t>Tested MQTT on my own computer to see it still works, merged into main, updated tickets, set up rest of the code needed to test NPK sensor in person</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>Discussed with group our plans to get everything completed before beta uild. Continued attempting to get uart to work and failed. Created new pin out diagram</t>
+  </si>
+  <si>
+    <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build; Still couldn't get NPK working :(</t>
   </si>
 </sst>
 </file>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.0166666666666666</v>
+        <v>4.6208333333333336</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1911,7 +1911,7 @@
         <v>9.7916666666666652E-2</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,7 +1932,7 @@
         <v>5.4861111111111027E-2</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1953,7 +1953,7 @@
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>6.597222222222221E-2</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2008,13 +2008,15 @@
       <c r="C57" s="17">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="17">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E57" s="10">
         <f t="shared" si="0"/>
-        <v>-0.44444444444444442</v>
+        <v>0.15972222222222221</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E13776-EFD9-4214-9F9D-201CFCEABE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF547DF-208F-4E7D-A654-BB03597A88AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Check-in 8: Met with group &amp; Tyler to demo current status of beta build; Still couldn't get NPK working :(</t>
+  </si>
+  <si>
+    <t>Implemented ability to toggle autoschedule in main depending on different topic messages</t>
   </si>
 </sst>
 </file>
@@ -834,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,7 +863,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.6208333333333336</v>
+        <v>3.7701388888888889</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -2020,15 +2023,23 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="17"/>
+      <c r="A58" s="7">
+        <v>46068</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0.85069444444444442</v>
+      </c>
       <c r="D58" s="17"/>
       <c r="E58" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="13"/>
+        <v>-0.85069444444444442</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF547DF-208F-4E7D-A654-BB03597A88AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A615D8D-0B35-4B76-88F3-A88DC8E0CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>3.7701388888888889</v>
+        <v>4.6451388888888889</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -2032,10 +2032,12 @@
       <c r="C58" s="17">
         <v>0.85069444444444442</v>
       </c>
-      <c r="D58" s="17"/>
+      <c r="D58" s="17">
+        <v>0.875</v>
+      </c>
       <c r="E58" s="10">
         <f t="shared" si="0"/>
-        <v>-0.85069444444444442</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>75</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A615D8D-0B35-4B76-88F3-A88DC8E0CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BADBBB7-F0A5-457E-B325-0243B83A6B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Name:</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Implemented ability to toggle autoschedule in main depending on different topic messages</t>
+  </si>
+  <si>
+    <t>Started testing NPK</t>
   </si>
 </sst>
 </file>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +866,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.6451388888888889</v>
+        <v>4.1763888888888889</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -2044,15 +2047,23 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="17"/>
+      <c r="A59" s="7">
+        <v>46069</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0.46875</v>
+      </c>
       <c r="D59" s="17"/>
       <c r="E59" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="13"/>
+        <v>-0.46875</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BADBBB7-F0A5-457E-B325-0243B83A6B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA1F46-C3CA-44D6-AA1A-9C6B6B17E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -266,7 +266,7 @@
     <t>Implemented ability to toggle autoschedule in main depending on different topic messages</t>
   </si>
   <si>
-    <t>Started testing NPK</t>
+    <t>Started testing NPK AND IT STILL DOESN'T WORK OH MY GOD</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.1763888888888889</v>
+        <v>4.7048611111111107</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -2056,10 +2056,12 @@
       <c r="C59" s="17">
         <v>0.46875</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="17">
+        <v>0.52847222222222223</v>
+      </c>
       <c r="E59" s="10">
         <f t="shared" si="0"/>
-        <v>-0.46875</v>
+        <v>5.9722222222222232E-2</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>76</v>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEA1F46-C3CA-44D6-AA1A-9C6B6B17E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB323393-75F0-414C-9725-EA9BCBBCBEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
   <si>
     <t>Name:</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Started testing NPK AND IT STILL DOESN'T WORK OH MY GOD</t>
+  </si>
+  <si>
+    <t>Got together as a goup and began planning phsyical layout of board</t>
+  </si>
+  <si>
+    <t>Finishing planning out board and began soldering. Got and tested LED and photoresistor</t>
   </si>
 </sst>
 </file>
@@ -840,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +872,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.7048611111111107</v>
+        <v>4.9604166666666663</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -2068,26 +2074,42 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
+      <c r="A60" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="17">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D60" s="17">
+        <v>0.53333333333333333</v>
+      </c>
       <c r="E60" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="13"/>
+        <v>8.8888888888888906E-2</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
+      <c r="C61" s="17">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="D61" s="17">
+        <v>0.74097222222222225</v>
+      </c>
       <c r="E61" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="13"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>

--- a/Documentation/Contributions/TimeReport_AspenBoler.xlsx
+++ b/Documentation/Contributions/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN4908\plant-partner\Documentation\Contributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB323393-75F0-414C-9725-EA9BCBBCBEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFC46FF-5BC6-49B3-B9B9-3070EC9A7592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
   <si>
     <t>Name:</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>Finishing planning out board and began soldering. Got and tested LED and photoresistor</t>
+  </si>
+  <si>
+    <t>Soldered everything together, tested everything, and then burnt out everything while trying to test it all</t>
+  </si>
+  <si>
+    <t>Figured out what actually broke and fixed board with Sabrina. Replaced falling out wires with headers</t>
   </si>
 </sst>
 </file>
@@ -846,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,7 +878,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>4.9604166666666663</v>
+        <v>5.4847222222222216</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -2095,8 +2101,12 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="7">
+        <v>46070</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" s="17">
         <v>0.57430555555555551</v>
       </c>
@@ -2112,26 +2122,46 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="A62" s="7">
+        <v>46072</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="17">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D62" s="17">
+        <v>0.83958333333333335</v>
+      </c>
       <c r="E62" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="13"/>
+        <v>0.27013888888888893</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
+      <c r="A63" s="7">
+        <v>46073</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D63" s="17">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="E63" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="13"/>
+        <v>0.25416666666666671</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
